--- a/dist/xlsx/world_currencies.xlsx
+++ b/dist/xlsx/world_currencies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:G159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,6 +591,16 @@
           <t>Dram Armeno</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1423</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>058F</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1518,11 +1528,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>931</v>
+        <v>192</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CUC</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1530,164 +1540,164 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Cuban convertible peso</t>
+          <t>Cuban peso</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Peso cubano convertibile</t>
+          <t>Peso cubano</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>8369</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>20B1</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>CVE</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Cuban peso</t>
+          <t>Cape Verdean escudo</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Peso cubano</t>
+          <t>Cabo Verde Escudo</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>8369</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20B1</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CVE</t>
+          <t>CZK</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Cape Verdean escudo</t>
+          <t>Czech koruna</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Cabo Verde Escudo</t>
+          <t>Corona Ceca</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>75;269</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>004B;010D</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CZK</t>
+          <t>DJF</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Czech koruna</t>
+          <t>Djiboutian franc</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Corona Ceca</t>
+          <t>Franco del Gibuti</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>75;269</t>
+          <t>70;100;106</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>004B;010D</t>
+          <t>0046;0064;006A</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>262</v>
+        <v>208</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DJF</t>
+          <t>DKK</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Djiboutian franc</t>
+          <t>Danish krone</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Franco del Gibuti</t>
+          <t>Corona Danese</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>70;100;106</t>
+          <t>107;114</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0046;0064;006A</t>
+          <t>006B;0072</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DKK</t>
+          <t>DOP</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1695,32 +1705,32 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Danish krone</t>
+          <t>Dominican peso</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Corona Danese</t>
+          <t>Peso dominicano</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>107;114</t>
+          <t>82;68;36</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>006B;0072</t>
+          <t>0052;0044;0024</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DOP</t>
+          <t>DZD</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1728,32 +1738,32 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Dominican peso</t>
+          <t>Algerian dinar</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Peso dominicano</t>
+          <t>Dinaro Algerino</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>82;68;36</t>
+          <t>1583;1580</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0052;0044;0024</t>
+          <t>062F;062C</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>12</v>
+        <v>818</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DZD</t>
+          <t>EGP</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1761,32 +1771,32 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Algerian dinar</t>
+          <t>Egyptian pound</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Dinaro Algerino</t>
+          <t>Sterlina Egiziana</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1583;1580</t>
+          <t>163</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>062F;062C</t>
+          <t>00A3</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>818</v>
+        <v>232</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>EGP</t>
+          <t>ERN</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1794,32 +1804,32 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Egyptian pound</t>
+          <t>Eritrean nakfa</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Sterlina Egiziana</t>
+          <t>Nakfa</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>1606;1575;1601;1603;1575</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>00A3</t>
+          <t>0646;0627;0641;0643;0627</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ERN</t>
+          <t>ETB</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1827,32 +1837,32 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Eritrean nakfa</t>
+          <t>Ethiopian birr</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Nakfa</t>
+          <t>Birr Etiope</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1606;1575;1601;1603;1575</t>
+          <t>4709;4653</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0646;0627;0641;0643;0627</t>
+          <t>1265;122D</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>230</v>
+        <v>978</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ETB</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1860,32 +1870,32 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Ethiopian birr</t>
+          <t>Euro</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Birr Etiope</t>
+          <t>Euro</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4709;4653</t>
+          <t>8364</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1265;122D</t>
+          <t>20AC</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>978</v>
+        <v>242</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>FJD</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1893,32 +1903,32 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Euro</t>
+          <t>Fiji dollar</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Euro</t>
+          <t>Dollaro delle Figi</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>8364</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>20AC</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FJD</t>
+          <t>FKP</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1926,32 +1936,32 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Fiji dollar</t>
+          <t>Falkland Islands pound</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Dollaro delle Figi</t>
+          <t>Sterlina delle Falkland</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>163</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>00A3</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>238</v>
+        <v>826</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FKP</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1959,12 +1969,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Falkland Islands pound</t>
+          <t>Pound sterling</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sterlina delle Falkland</t>
+          <t>Sterlina Britannica</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1980,11 +1990,11 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>826</v>
+        <v>981</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>GEL</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1992,32 +2002,32 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Pound sterling</t>
+          <t>Georgian lari</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sterlina Britannica</t>
+          <t>Lari</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>8382</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>00A3</t>
+          <t>20BE</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>981</v>
+        <v>936</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GEL</t>
+          <t>GHS</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2025,32 +2035,32 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Georgian lari</t>
+          <t>Ghanaian cedi</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Lari</t>
+          <t>Ghana Cedi</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>8382</t>
+          <t>162</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>20BE</t>
+          <t>00A2</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>936</v>
+        <v>292</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GHS</t>
+          <t>GIP</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2058,32 +2068,32 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Ghanaian cedi</t>
+          <t>Gibraltar pound</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Ghana Cedi</t>
+          <t>Sterlina di Gibilterra</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>163</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>00A2</t>
+          <t>00A3</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>GIP</t>
+          <t>GMD</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -2091,98 +2101,98 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Gibraltar pound</t>
+          <t>Gambian dalasi</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sterlina di Gibilterra</t>
+          <t>Dalasi</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>68</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>00A3</t>
+          <t>0044</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>270</v>
+        <v>324</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>GMD</t>
+          <t>GNF</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Gambian dalasi</t>
+          <t>Guinean franc</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Dalasi</t>
+          <t>Franco della Guinea</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>70;71</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0044</t>
+          <t>0046;0047</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GNF</t>
+          <t>GTQ</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Guinean franc</t>
+          <t>Guatemalan quetzal</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Franco della Guinea</t>
+          <t>Quetzal</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>70;71</t>
+          <t>81</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0046;0047</t>
+          <t>0051</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>GTQ</t>
+          <t>GYD</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2190,32 +2200,32 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Guatemalan quetzal</t>
+          <t>Guyanese dollar</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Quetzal</t>
+          <t>Dollaro della Guyana</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0051</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GYD</t>
+          <t>HKD</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -2223,12 +2233,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Guyanese dollar</t>
+          <t>Hong Kong dollar</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Dollaro della Guyana</t>
+          <t>Dollaro di Hong Kong</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2244,11 +2254,11 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>HKD</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -2256,32 +2266,32 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Hong Kong dollar</t>
+          <t>Honduran lempira</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Dollaro di Hong Kong</t>
+          <t>Lempira</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>76</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>004C</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>HTG</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -2289,32 +2299,32 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Honduran lempira</t>
+          <t>Haitian gourde</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Lempira</t>
+          <t>Gourde</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>004C</t>
+          <t>0047</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>HTG</t>
+          <t>HUF</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2322,32 +2332,32 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Haitian gourde</t>
+          <t>Hungarian forint</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Gourde</t>
+          <t>Fiorino</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>70;116</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0047</t>
+          <t>0046;0074</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>HUF</t>
+          <t>IDR</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -2355,32 +2365,32 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Hungarian forint</t>
+          <t>Indonesian rupiah</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Fiorino</t>
+          <t>Rupia</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>70;116</t>
+          <t>82;112</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0046;0074</t>
+          <t>0052;0070</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>IDR</t>
+          <t>ILS</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2388,32 +2398,32 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Indonesian rupiah</t>
+          <t>Israeli new shekel</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Rupia</t>
+          <t>Nuovo Shekel Israeliano</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>82;112</t>
+          <t>8362</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0052;0070</t>
+          <t>20AA</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ILS</t>
+          <t>INR</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -2421,263 +2431,263 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Israeli new shekel</t>
+          <t>Indian rupee</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Nuovo Shekel Israeliano</t>
+          <t>Rupia indiana</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>8362</t>
+          <t>8377</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>20AA</t>
+          <t>20B9</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>INR</t>
+          <t>IQD</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Indian rupee</t>
+          <t>Iraqi dinar</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Rupia indiana</t>
+          <t>Dinaro Iracheno</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>8377</t>
+          <t>1593;46;1583</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>20B9</t>
+          <t>0639;002E;062F</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>IQD</t>
+          <t>IRR</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Iraqi dinar</t>
+          <t>Iranian rial</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Dinaro Iracheno</t>
+          <t>Riyal Iraniano</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1593;46;1583</t>
+          <t>65020</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0639;002E;062F</t>
+          <t>FDFC</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>IRR</t>
+          <t>ISK</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Iranian rial</t>
+          <t>Icelandic króna</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Riyal Iraniano</t>
+          <t>Corona Islandese</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>65020</t>
+          <t>107;114</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>FDFC</t>
+          <t>006B;0072</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ISK</t>
+          <t>JMD</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Icelandic króna</t>
+          <t>Jamaican dollar</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Corona Islandese</t>
+          <t>Dollaro giamaicano</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>107;114</t>
+          <t>74;36</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>006B;0072</t>
+          <t>004A;0024</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>JMD</t>
+          <t>JOD</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Jamaican dollar</t>
+          <t>Jordanian dinar</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Dollaro giamaicano</t>
+          <t>Dinaro giordano</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>74;36</t>
+          <t>1583;1610;1606;1575;1585</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>004A;0024</t>
+          <t>062F;064A;0646;0627;0631</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>JOD</t>
+          <t>JPY</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Jordanian dinar</t>
+          <t>Japanese yen</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Dinaro giordano</t>
+          <t>Yen</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1583;1610;1606;1575;1585</t>
+          <t>165</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>062F;064A;0646;0627;0631</t>
+          <t>00A5</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>JPY</t>
+          <t>KES</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Japanese yen</t>
+          <t>Kenyan shilling</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Yen</t>
+          <t>Scellino Keniota</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>75;83;104</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>00A5</t>
+          <t>004B;0053;0068</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>KES</t>
+          <t>KGS</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -2685,32 +2695,32 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Kenyan shilling</t>
+          <t>Kyrgyzstani som</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Scellino Keniota</t>
+          <t>Som</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>75;83;104</t>
+          <t>1083;1074</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>004B;0053;0068</t>
+          <t>043B;0432</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>417</v>
+        <v>116</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>KGS</t>
+          <t>KHR</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -2718,111 +2728,111 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Kyrgyzstani som</t>
+          <t>Cambodian riel</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Som</t>
+          <t>Riel</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>1083;1074</t>
+          <t>6107</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>043B;0432</t>
+          <t>17DB</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>KHR</t>
+          <t>KMF</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Cambodian riel</t>
+          <t>Comoro franc</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Riel</t>
+          <t>Franco delle Comore</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>6107</t>
+          <t>67;70</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>17DB</t>
+          <t>0043;0046</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>174</v>
+        <v>408</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>KMF</t>
+          <t>KPW</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Comoro franc</t>
+          <t>North Korean won</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Franco delle Comore</t>
+          <t>Won Nordcoreano</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>67;70</t>
+          <t>8361</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0043;0046</t>
+          <t>20A9</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>KPW</t>
+          <t>KRW</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>North Korean won</t>
+          <t>South Korean won</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Won Nordcoreano</t>
+          <t>Won</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2838,77 +2848,77 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>KRW</t>
+          <t>KWD</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>South Korean won</t>
+          <t>Kuwaiti dinar</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Won</t>
+          <t>Dinaro Kuwaitiano</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>8361</t>
+          <t>1583;46;1603</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>20A9</t>
+          <t>062F;002E;0643</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>414</v>
+        <v>136</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>KWD</t>
+          <t>KYD</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Kuwaiti dinar</t>
+          <t>Cayman Islands dollar</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Dinaro Kuwaitiano</t>
+          <t>Dollaro delle Isole Cayman</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1583;46;1603</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>062F;002E;0643</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>136</v>
+        <v>398</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>KYD</t>
+          <t>KZT</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -2916,32 +2926,32 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Cayman Islands dollar</t>
+          <t>Kazakhstani tenge</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Dollaro delle Isole Cayman</t>
+          <t>Tenge</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>1083;1074</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>043B;0432</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>KZT</t>
+          <t>LAK</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -2949,32 +2959,32 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Kazakhstani tenge</t>
+          <t>Lao kip</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Tenge</t>
+          <t>Kip</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1083;1074</t>
+          <t>8365</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>043B;0432</t>
+          <t>20AD</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>LAK</t>
+          <t>LBP</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -2982,32 +2992,32 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Lao kip</t>
+          <t>Lebanese pound</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Kip</t>
+          <t>Libbra libanese</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>8365</t>
+          <t>163</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>20AD</t>
+          <t>00A3</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>422</v>
+        <v>144</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>LBP</t>
+          <t>LKR</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -3015,32 +3025,32 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Lebanese pound</t>
+          <t>Sri Lankan rupee</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Libbra libanese</t>
+          <t>Rupia dello Sri Lanka</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>8360</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>00A3</t>
+          <t>20A8</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>144</v>
+        <v>430</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>LKR</t>
+          <t>LRD</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -3048,32 +3058,32 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Sri Lankan rupee</t>
+          <t>Liberian dollar</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Rupia dello Sri Lanka</t>
+          <t>Dollaro Liberiano</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>8360</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>20A8</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>LRD</t>
+          <t>LSL</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -3081,98 +3091,98 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Liberian dollar</t>
+          <t>Lesotho loti</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Dollaro Liberiano</t>
+          <t>Loti</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>76</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>004C</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>LSL</t>
+          <t>LYD</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Lesotho loti</t>
+          <t>Libyan dinar</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Loti</t>
+          <t>Dinaro Libico</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>1604;46;1583</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>004C</t>
+          <t>0644;002E;062F</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>434</v>
+        <v>504</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>LYD</t>
+          <t>MAD</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Libyan dinar</t>
+          <t>Moroccan dirham</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Dinaro Libico</t>
+          <t>Dirham Marocchino</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1604;46;1583</t>
+          <t>77;65;68</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0644;002E;062F</t>
+          <t>004D;0041;0044</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MAD</t>
+          <t>MDL</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -3180,88 +3190,98 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Moroccan dirham</t>
+          <t>Moldovan leu</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Dirham Marocchino</t>
+          <t>Leu Moldavo</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>77;65;68</t>
+          <t>76</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>004D;0041;0044</t>
+          <t>004C</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>498</v>
+        <v>969</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MDL</t>
+          <t>MGA</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Moldovan leu</t>
+          <t>Malagasy ariary</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Leu Moldavo</t>
+          <t>Ariary Malgascio</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>65;114</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0041;0072</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>969</v>
+        <v>807</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>MKD</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Malagasy ariary</t>
+          <t>Macedonian denar</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ariary Malgascio</t>
+          <t>Denar</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>65;114</t>
+          <t>1076;1077;1085</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0041;0072</t>
+          <t>0434;0435;043D</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>807</v>
+        <v>104</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MKD</t>
+          <t>MMK</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -3269,32 +3289,32 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Macedonian denar</t>
+          <t>Burmese kyat</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Denar</t>
+          <t>Kyat</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1076;1077;1085</t>
+          <t>75</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0434;0435;043D</t>
+          <t>004B</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>104</v>
+        <v>496</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MMK</t>
+          <t>MNT</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -3302,32 +3322,32 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Burmese kyat</t>
+          <t>Mongolian tögrög</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Kyat</t>
+          <t>Tugrik</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>8366</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>004B</t>
+          <t>20AE</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>496</v>
+        <v>446</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MNT</t>
+          <t>MOP</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -3335,98 +3355,98 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Mongolian tögrög</t>
+          <t>Macanese pataca</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Tugrik</t>
+          <t>Pataca</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>8366</t>
+          <t>77;79;80;36</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>20AE</t>
+          <t>004D;004F;0050;0024</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>446</v>
+        <v>929</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MOP</t>
+          <t>MRU</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Macanese pataca</t>
+          <t>Mauritanian ouguiya</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Pataca</t>
+          <t>Rupia Mauriziana</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>77;79;80;36</t>
+          <t>85;77</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>004D;004F;0050;0024</t>
+          <t>0055;004D</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>929</v>
+        <v>480</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MRU</t>
+          <t>MUR</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Mauritanian ouguiya</t>
+          <t>Mauritian rupee</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Rupia Mauriziana</t>
+          <t>Rupia delle Mauritius</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>85;77</t>
+          <t>8360</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0055;004D</t>
+          <t>20A8</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MUR</t>
+          <t>MVR</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -3434,32 +3454,32 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Mauritian rupee</t>
+          <t>Maldivian rufiyaa</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Rupia delle Mauritius</t>
+          <t>Rufiyaa</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>8360</t>
+          <t>45;1923</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>20A8</t>
+          <t>002D;0783</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MVR</t>
+          <t>MWK</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -3467,32 +3487,32 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Maldivian rufiyaa</t>
+          <t>Malawian kwacha</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Rufiyaa</t>
+          <t>Kwacha</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>45;1923</t>
+          <t>77;75</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>002D;0783</t>
+          <t>004D;004B</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MWK</t>
+          <t>MXN</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -3500,32 +3520,32 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Malawian kwacha</t>
+          <t>Mexican peso</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Kwacha</t>
+          <t>Peso Messicano</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>77;75</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>004D;004B</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>484</v>
+        <v>458</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MXN</t>
+          <t>MYR</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -3533,32 +3553,32 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Mexican peso</t>
+          <t>Malaysian ringgit</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Peso Messicano</t>
+          <t>Ringgit Malese</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>82;77</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>0052;004D</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>458</v>
+        <v>943</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MYR</t>
+          <t>MZN</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -3566,32 +3586,32 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Malaysian ringgit</t>
+          <t>Mozambican metical</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ringgit Malese</t>
+          <t>Metical Mozambicano</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>82;77</t>
+          <t>77;84</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0052;004D</t>
+          <t>004D;0054</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>943</v>
+        <v>516</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MZN</t>
+          <t>NAD</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -3599,32 +3619,32 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Mozambican metical</t>
+          <t>Namibian dollar</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Metical Mozambicano</t>
+          <t>Dollaro Namibiano</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>77;84</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>004D;0054</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>516</v>
+        <v>566</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NAD</t>
+          <t>NGN</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -3632,32 +3652,32 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Namibian dollar</t>
+          <t>Nigerian naira</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Dollaro Namibiano</t>
+          <t>Naira</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>8358</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>20A6</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NGN</t>
+          <t>NIO</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -3665,32 +3685,32 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Nigerian naira</t>
+          <t>Nicaraguan córdoba</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Naira</t>
+          <t>Cordoba Oro</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>8358</t>
+          <t>67;36</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>20A6</t>
+          <t>0043;0024</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>558</v>
+        <v>578</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -3698,32 +3718,32 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Nicaraguan córdoba</t>
+          <t>Norwegian krone</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Cordoba Oro</t>
+          <t>Corona norvegese</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>67;36</t>
+          <t>107;114</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0043;0024</t>
+          <t>006B;0072</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>578</v>
+        <v>524</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>NPR</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -3731,32 +3751,32 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Norwegian krone</t>
+          <t>Nepalese rupee</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Corona norvegese</t>
+          <t>Rupia nepalese</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>107;114</t>
+          <t>8360</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>006B;0072</t>
+          <t>20A8</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NPR</t>
+          <t>NZD</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -3764,98 +3784,98 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Nepalese rupee</t>
+          <t>New Zealand dollar</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Rupia nepalese</t>
+          <t>Dollaro neozelandese</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>8360</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>20A8</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>554</v>
+        <v>512</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NZD</t>
+          <t>OMR</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>New Zealand dollar</t>
+          <t>Omani rial</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Dollaro neozelandese</t>
+          <t>Rial Omani</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>65020</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>FDFC</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>512</v>
+        <v>590</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>OMR</t>
+          <t>PAB</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Omani rial</t>
+          <t>Panamanian balboa</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Rial Omani</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>65020</t>
+          <t>66;47;46</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>FDFC</t>
+          <t>0042;002F;002E</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>PAB</t>
+          <t>PEN</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -3863,32 +3883,32 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Panamanian balboa</t>
+          <t>Peruvian sol</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Nuevo Sol</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>66;47;46</t>
+          <t>83;47;46</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>0042;002F;002E</t>
+          <t>0053;002F;002E</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>PEN</t>
+          <t>PGK</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -3896,32 +3916,32 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Peruvian sol</t>
+          <t>Papua New Guinean kina</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Nuevo Sol</t>
+          <t>Kina</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>83;47;46</t>
+          <t>75</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>0053;002F;002E</t>
+          <t>004B</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>PGK</t>
+          <t>PHP</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -3929,32 +3949,32 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Papua New Guinean kina</t>
+          <t>Philippine peso</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Kina</t>
+          <t>Peso filippino</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>8369</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>004B</t>
+          <t>20B1</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>608</v>
+        <v>586</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>PHP</t>
+          <t>PKR</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -3962,32 +3982,32 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Philippine peso</t>
+          <t>Pakistani rupee</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Peso filippino</t>
+          <t>Rupia pakistana</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>8369</t>
+          <t>8360</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>20B1</t>
+          <t>20A8</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>586</v>
+        <v>985</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>PKR</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -3995,98 +4015,98 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Pakistani rupee</t>
+          <t>Polish złoty</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Rupia pakistana</t>
+          <t>Zloty</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>8360</t>
+          <t>122;322</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>20A8</t>
+          <t>007A;0142</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>985</v>
+        <v>600</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>PYG</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Polish złoty</t>
+          <t>Paraguayan guaraní</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Zloty</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>122;322</t>
+          <t>71;115</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>007A;0142</t>
+          <t>0047;0073</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>600</v>
+        <v>634</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>PYG</t>
+          <t>QAR</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Paraguayan guaraní</t>
+          <t>Qatari riyal</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Rial del Qatar</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>71;115</t>
+          <t>65020</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>0047;0073</t>
+          <t>FDFC</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>634</v>
+        <v>946</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>QAR</t>
+          <t>RON</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -4094,32 +4114,32 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Qatari riyal</t>
+          <t>Romanian leu</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Rial del Qatar</t>
+          <t>Leu rumeno</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>65020</t>
+          <t>108;101;105</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>FDFC</t>
+          <t>006C;0065;0069</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>RON</t>
+          <t>RSD</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -4127,32 +4147,32 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Romanian leu</t>
+          <t>Serbian dinar</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Leu rumeno</t>
+          <t>Dinaro serbo</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>108;101;105</t>
+          <t>1044;1080;1085;46</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>006C;0065;0069</t>
+          <t>0414;0438;043D;002E</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>941</v>
+        <v>643</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>RSD</t>
+          <t>RUB</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -4160,98 +4180,98 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Serbian dinar</t>
+          <t>Russian ruble</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Dinaro serbo</t>
+          <t>Rublo russo</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1044;1080;1085;46</t>
+          <t>1088;1091;1073</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>0414;0438;043D;002E</t>
+          <t>0440;0443;0431</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>RWF</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Russian ruble</t>
+          <t>Rwandan franc</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Rublo russo</t>
+          <t>Franco ruandese</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1088;1091;1073</t>
+          <t>70;82;119</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>0440;0443;0431</t>
+          <t>0046;0052;0077</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>646</v>
+        <v>682</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>RWF</t>
+          <t>SAR</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Rwandan franc</t>
+          <t>Saudi riyal</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Franco ruandese</t>
+          <t>Riyal saudita</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>70;82;119</t>
+          <t>65020</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>0046;0052;0077</t>
+          <t>FDFC</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>682</v>
+        <v>90</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SAR</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -4259,32 +4279,32 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Saudi riyal</t>
+          <t>Solomon Islands dollar</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Riyal saudita</t>
+          <t>Dollaro delle Isole Salomone</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>65020</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>FDFC</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>90</v>
+        <v>690</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>SCR</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -4292,32 +4312,32 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Solomon Islands dollar</t>
+          <t>Seychelles rupee</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Dollaro delle Isole Salomone</t>
+          <t>Rupia delle Seychelles</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>8360</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>20A8</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>690</v>
+        <v>938</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SCR</t>
+          <t>SDG</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -4325,32 +4345,32 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Seychelles rupee</t>
+          <t>Sudanese pound</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Rupia delle Seychelles</t>
+          <t>Sterlina sudanese</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>8360</t>
+          <t>1580;46;1587</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>20A8</t>
+          <t>062C;002E;0633</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>938</v>
+        <v>752</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SDG</t>
+          <t>SEK</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -4358,32 +4378,32 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Sudanese pound</t>
+          <t>Swedish krona/kronor</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Sterlina sudanese</t>
+          <t>Corona svedese</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>1580;46;1587</t>
+          <t>107;114</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>062C;002E;0633</t>
+          <t>006B;0072</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>752</v>
+        <v>702</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SEK</t>
+          <t>SGD</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -4391,32 +4411,32 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Swedish krona/kronor</t>
+          <t>Singapore dollar</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Corona svedese</t>
+          <t>Dollaro di Singapore</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>107;114</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>006B;0072</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>702</v>
+        <v>654</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SGD</t>
+          <t>SHP</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -4424,32 +4444,32 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Singapore dollar</t>
+          <t>Saint Helena pound</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Dollaro di Singapore</t>
+          <t>Saint Helena Pound</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>163</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>00A3</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>654</v>
+        <v>925</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>SHP</t>
+          <t>SLE</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -4457,32 +4477,32 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Saint Helena pound</t>
+          <t>Sierra Leonean new leone</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Saint Helena Pound</t>
+          <t>Nuovo leone</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>76;101</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>00A3</t>
+          <t>004C;0065</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>925</v>
+        <v>694</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>SLE</t>
+          <t>SLL</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -4490,12 +4510,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Sierra Leonean new leone</t>
+          <t>Sierra Leonean old leone</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Nuovo leone</t>
+          <t>Vecchia leone</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -4511,11 +4531,11 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SLL</t>
+          <t>SOS</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -4523,32 +4543,32 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Sierra Leonean old leone</t>
+          <t>Somali shilling</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Vecchia leone</t>
+          <t>Scellino somalo</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>76;101</t>
+          <t>83</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>004C;0065</t>
+          <t>0053</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>706</v>
+        <v>968</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SOS</t>
+          <t>SRD</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -4556,32 +4576,32 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Somali shilling</t>
+          <t>Surinamese dollar</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Scellino somalo</t>
+          <t>Dollaro del Suriname</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>0053</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>968</v>
+        <v>728</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>SRD</t>
+          <t>SSP</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -4589,12 +4609,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Surinamese dollar</t>
+          <t>South Sudanese pound</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Dollaro del Suriname</t>
+          <t>Sterlina sud-sudanese</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -4610,11 +4630,11 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>728</v>
+        <v>930</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>SSP</t>
+          <t>STN</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -4622,32 +4642,32 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>South Sudanese pound</t>
+          <t>São Tomé and Príncipe dobra</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Sterlina sud-sudanese</t>
+          <t>Dobra di São Tomé e Principe</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>68;98</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>0044;0062</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>930</v>
+        <v>222</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>STN</t>
+          <t>SVC</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -4655,32 +4675,32 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>São Tomé and Príncipe dobra</t>
+          <t>Salvadoran colón</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Dobra di São Tomé e Principe</t>
+          <t>Colón Salvadoregno</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>68;98</t>
+          <t>20A1</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>0044;0062</t>
+          <t>8353</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>222</v>
+        <v>760</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>SVC</t>
+          <t>SYP</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -4688,32 +4708,32 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Salvadoran colón</t>
+          <t>Syrian pound</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Colón Salvadoregno</t>
+          <t>Sterlina siriana</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>20A1</t>
+          <t>163</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>8353</t>
+          <t>00A3</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>SYP</t>
+          <t>SZL</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -4721,32 +4741,32 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Syrian pound</t>
+          <t>Swazi lilangeni</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Sterlina siriana</t>
+          <t>Lilangeni</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>76</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>00A3</t>
+          <t>004C</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>748</v>
+        <v>764</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>SZL</t>
+          <t>THB</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -4754,32 +4774,32 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Swazi lilangeni</t>
+          <t>Thai baht</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Lilangeni</t>
+          <t>Baht</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>3647</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>004C</t>
+          <t>0E3F</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>764</v>
+        <v>972</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>THB</t>
+          <t>TJS</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -4787,32 +4807,32 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Thai baht</t>
+          <t>Tajikistani somoni</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Baht</t>
+          <t>Somoni</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>3647</t>
+          <t>1057</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>0E3F</t>
+          <t>0421</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>972</v>
+        <v>934</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TJS</t>
+          <t>TMT</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -4820,88 +4840,98 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Tajikistani somoni</t>
+          <t>Turkmenistani manat</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Somoni</t>
+          <t>Manat turkmeno</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0054</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>934</v>
+        <v>788</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TMT</t>
+          <t>TND</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Turkmenistani manat</t>
+          <t>Tunisian dinar</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Manat turkmeno</t>
+          <t>Dinaro tunisino</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>1583;46;1578</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>0054</t>
+          <t>062F;002E;062A</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TND</t>
+          <t>TOP</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Tunisian dinar</t>
+          <t>Tongan pa'anga</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Dinaro tunisino</t>
+          <t>Pa'anga</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>1583;46;1578</t>
+          <t>84;36</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>062F;002E;062A</t>
+          <t>0054;0024</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>776</v>
+        <v>949</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>TOP</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -4909,32 +4939,32 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Tongan paʻanga</t>
+          <t>Turkish lira</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Pa'anga</t>
+          <t>Lira turca</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>84;36</t>
+          <t>8378</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>0054;0024</t>
+          <t>20BA</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>949</v>
+        <v>780</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TRY</t>
+          <t>TTD</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -4942,32 +4972,32 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Turkish lira</t>
+          <t>Trinidad and Tobago dollar</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Lira turca</t>
+          <t>Dollaro di Trinidad e Tobago</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>8378</t>
+          <t>84;84;36</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>20BA</t>
+          <t>0054;0054;0024</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>780</v>
+        <v>901</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>TWD</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -4975,32 +5005,32 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Trinidad and Tobago dollar</t>
+          <t>New Taiwan dollar</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Dollaro di Trinidad e Tobago</t>
+          <t>Nuovo dollaro di Taiwan</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>84;84;36</t>
+          <t>78;84;36</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>0054;0054;0024</t>
+          <t>004E;0054;0024</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>901</v>
+        <v>834</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TWD</t>
+          <t>TZS</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -5008,32 +5038,32 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>New Taiwan dollar</t>
+          <t>Tanzanian shilling</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Nuovo dollaro di Taiwan</t>
+          <t>Scellino tanzaniano</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>78;84;36</t>
+          <t>84;83;104</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>004E;0054;0024</t>
+          <t>0054;0053;0068</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>834</v>
+        <v>980</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TZS</t>
+          <t>UAH</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -5041,98 +5071,98 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Tanzanian shilling</t>
+          <t>Ukrainian hryvnia</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Scellino tanzaniano</t>
+          <t>Hryvnia</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>84;83;104</t>
+          <t>8372</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>0054;0053;0068</t>
+          <t>20B4</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>980</v>
+        <v>800</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>UAH</t>
+          <t>UGX</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Ukrainian hryvnia</t>
+          <t>Ugandan shilling</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Hryvnia</t>
+          <t>Scellino dell'Uganda</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>8372</t>
+          <t>85;83;104</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>20B4</t>
+          <t>0055;0053;0068</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>800</v>
+        <v>840</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>UGX</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Ugandan shilling</t>
+          <t>United States dollar</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Scellino dell'Uganda</t>
+          <t>Dollaro Americano</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>85;83;104</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>0055;0053;0068</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>840</v>
+        <v>858</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>UYU</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -5140,32 +5170,32 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>United States dollar</t>
+          <t>Uruguayan peso</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Dollaro Americano</t>
+          <t>Peso Uruguayo</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>36;85</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>0024;0055</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>UYU</t>
+          <t>UZS</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -5173,32 +5203,32 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Uruguayan peso</t>
+          <t>Uzbekistan som</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Peso Uruguayo</t>
+          <t>Sum dell'Uzbekistan</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>36;85</t>
+          <t>1083;1074</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>0024;0055</t>
+          <t>043B;0432</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>860</v>
+        <v>926</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>UZS</t>
+          <t>VED</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -5206,32 +5236,32 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Uzbekistan som</t>
+          <t>Venezuelan digital bolívar</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Sum dell'Uzbekistan</t>
+          <t>Bolívar digitale venezuelano</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>1083;1074</t>
+          <t>66;115;46;68</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>043B;0432</t>
+          <t>0042;0073;002E;0044</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>VED</t>
+          <t>VES</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -5239,65 +5269,65 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Venezuelan digital bolívar</t>
+          <t>Venezuelan sovereign bolívar</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Bolívar digitale venezuelano</t>
+          <t>Bolívar sovrano venezuelano</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>66;115;46;68</t>
+          <t>66;115;46;83</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>0042;0073;002E;0044</t>
+          <t>0042;0073;002E;0053</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>928</v>
+        <v>704</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>VES</t>
+          <t>VND</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Venezuelan sovereign bolívar</t>
+          <t>Vietnamese đồng</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Bolívar sovrano venezuelano</t>
+          <t>Dong</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>66;115;46;83</t>
+          <t>8363</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>0042;0073;002E;0053</t>
+          <t>20AB</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>704</v>
+        <v>548</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>VND</t>
+          <t>VUV</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -5305,154 +5335,164 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Vietnamese đồng</t>
+          <t>Vanuatu vatu</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Dong</t>
+          <t>Vatu</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>8363</t>
+          <t>86;84</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>20AB</t>
+          <t>0056;0054</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>548</v>
+        <v>882</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>VUV</t>
+          <t>WST</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Vanuatu vatu</t>
+          <t>Samoan tala</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Vatu</t>
+          <t>Tala</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>86;84</t>
+          <t>87;83;36</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>0056;0054</t>
+          <t>0057;0053;0024</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>882</v>
+        <v>950</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>XAF</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Samoan tala</t>
+          <t>CFA franc BEAC</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Tala</t>
+          <t>CFA Franco BEAC</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>87;83;36</t>
+          <t>70;67;70;65</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>0057;0053;0024</t>
+          <t>0046;0043;0046;0041</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>XAF</t>
+          <t>XCD</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>CFA franc BEAC</t>
+          <t>East Caribbean dollar</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>CFA Franco BEAC</t>
+          <t>Dollaro caraibico orientale</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>XCD</t>
+          <t>XOF</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>East Caribbean dollar</t>
+          <t>CFA franc BCEAO</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Dollaro caraibico orientale</t>
+          <t>CFA Franco BCEAO</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>70;67;70;65</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>0046;0043;0046;0041</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>XOF</t>
+          <t>XPF</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -5460,22 +5500,32 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>CFA franc BCEAO</t>
+          <t>CFP franc (franc Pacifique)</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>CFA Franco BCEAO</t>
+          <t>Franco CFP</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0046</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>953</v>
+        <v>999</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>XPF</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -5483,55 +5533,55 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>CFP franc (franc Pacifique)</t>
+          <t>No currency</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Franco CFP</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>0046</t>
+          <t>Nessuna valuta</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>999</v>
+        <v>886</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>YER</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>No currency</t>
+          <t>Yemeni rial</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Nessuna valuta</t>
+          <t>Rial Yemenita</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>65020</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>FDFC</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>886</v>
+        <v>710</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>YER</t>
+          <t>ZAR</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -5539,32 +5589,32 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Yemeni rial</t>
+          <t>South African rand</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Rial Yemenita</t>
+          <t>Rand</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>65020</t>
+          <t>82</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>FDFC</t>
+          <t>0052</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>710</v>
+        <v>967</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ZAR</t>
+          <t>ZMW</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -5572,32 +5622,32 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>South African rand</t>
+          <t>Zambian kwacha</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Rand</t>
+          <t>Kwacha dello Zambia</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>90;36</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>0052</t>
+          <t>005A;0024</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>967</v>
+        <v>932</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ZMW</t>
+          <t>ZWL</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -5605,53 +5655,20 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Zambian kwacha</t>
+          <t>Zimbabwean dollar</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Kwacha dello Zambia</t>
+          <t>Dollaro dello Zimbabwe</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>90;36</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
-        <is>
-          <t>005A;0024</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>932</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>ZWL</t>
-        </is>
-      </c>
-      <c r="C160" t="n">
-        <v>2</v>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Zimbabwean dollar</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Dollaro dello Zimbabwe</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
         <is>
           <t>0024</t>
         </is>

--- a/dist/xlsx/world_currencies.xlsx
+++ b/dist/xlsx/world_currencies.xlsx
@@ -432,6 +432,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="39" customWidth="1" min="4" max="4"/>
+    <col width="32" customWidth="1" min="5" max="5"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">

--- a/dist/xlsx/world_currencies.xlsx
+++ b/dist/xlsx/world_currencies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G159"/>
+  <dimension ref="A1:G158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Burmese kyat</t>
+          <t>Myanmar kyat</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Sierra Leonean new leone</t>
+          <t>Sierra Leonean leone</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4505,11 +4505,11 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>SLL</t>
+          <t>SOS</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -4517,32 +4517,32 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Sierra Leonean old leone</t>
+          <t>Somalian shilling</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Vecchia leone</t>
+          <t>Scellino somalo</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>76;101</t>
+          <t>83</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>004C;0065</t>
+          <t>0053</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>706</v>
+        <v>968</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SOS</t>
+          <t>SRD</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -4550,32 +4550,32 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Somali shilling</t>
+          <t>Surinamese dollar</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Scellino somalo</t>
+          <t>Dollaro del Suriname</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>0053</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>968</v>
+        <v>728</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SRD</t>
+          <t>SSP</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -4583,12 +4583,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Surinamese dollar</t>
+          <t>South Sudanese pound</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Dollaro del Suriname</t>
+          <t>Sterlina sud-sudanese</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4604,11 +4604,11 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>728</v>
+        <v>930</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>SSP</t>
+          <t>STN</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -4616,32 +4616,32 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>South Sudanese pound</t>
+          <t>São Tomé and Príncipe dobra</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Sterlina sud-sudanese</t>
+          <t>Dobra di São Tomé e Principe</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>68;98</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>0044;0062</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>930</v>
+        <v>222</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>STN</t>
+          <t>SVC</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -4649,32 +4649,32 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>São Tomé and Príncipe dobra</t>
+          <t>Salvadoran colón</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Dobra di São Tomé e Principe</t>
+          <t>Colón Salvadoregno</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>68;98</t>
+          <t>20A1</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>0044;0062</t>
+          <t>8353</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>222</v>
+        <v>760</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SVC</t>
+          <t>SYP</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -4682,32 +4682,32 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Salvadoran colón</t>
+          <t>Syrian pound</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Colón Salvadoregno</t>
+          <t>Sterlina siriana</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>20A1</t>
+          <t>163</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>8353</t>
+          <t>00A3</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>SYP</t>
+          <t>SZL</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -4715,32 +4715,32 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Syrian pound</t>
+          <t>Swazi lilangeni</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Sterlina siriana</t>
+          <t>Lilangeni</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>76</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>00A3</t>
+          <t>004C</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>748</v>
+        <v>764</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>SZL</t>
+          <t>THB</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -4748,32 +4748,32 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Swazi lilangeni</t>
+          <t>Thai baht</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Lilangeni</t>
+          <t>Baht</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>3647</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>004C</t>
+          <t>0E3F</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>764</v>
+        <v>972</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>THB</t>
+          <t>TJS</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -4781,32 +4781,32 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Thai baht</t>
+          <t>Tajikistani somoni</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Baht</t>
+          <t>Somoni</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>3647</t>
+          <t>1057</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>0E3F</t>
+          <t>0421</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>972</v>
+        <v>934</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TJS</t>
+          <t>TMT</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -4814,98 +4814,98 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Tajikistani somoni</t>
+          <t>Turkmenistani manat</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Somoni</t>
+          <t>Manat turkmeno</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>1057</t>
+          <t>84</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>0421</t>
+          <t>0054</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>934</v>
+        <v>788</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TMT</t>
+          <t>TND</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Turkmenistani manat</t>
+          <t>Tunisian dinar</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Manat turkmeno</t>
+          <t>Dinaro tunisino</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>1583;46;1578</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>0054</t>
+          <t>062F;002E;062A</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TND</t>
+          <t>TOP</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Tunisian dinar</t>
+          <t>Tongan pa'anga</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Dinaro tunisino</t>
+          <t>Pa'anga</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>1583;46;1578</t>
+          <t>84;36</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>062F;002E;062A</t>
+          <t>0054;0024</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>776</v>
+        <v>949</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TOP</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -4913,32 +4913,32 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Tongan pa'anga</t>
+          <t>Turkish lira</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Pa'anga</t>
+          <t>Lira turca</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>84;36</t>
+          <t>8378</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>0054;0024</t>
+          <t>20BA</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>949</v>
+        <v>780</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>TRY</t>
+          <t>TTD</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -4946,32 +4946,32 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Turkish lira</t>
+          <t>Trinidad and Tobago dollar</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Lira turca</t>
+          <t>Dollaro di Trinidad e Tobago</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>8378</t>
+          <t>84;84;36</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>20BA</t>
+          <t>0054;0054;0024</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>780</v>
+        <v>901</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>TWD</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -4979,32 +4979,32 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Trinidad and Tobago dollar</t>
+          <t>New Taiwan dollar</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Dollaro di Trinidad e Tobago</t>
+          <t>Nuovo dollaro di Taiwan</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>84;84;36</t>
+          <t>78;84;36</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>0054;0054;0024</t>
+          <t>004E;0054;0024</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>901</v>
+        <v>834</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TWD</t>
+          <t>TZS</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -5012,32 +5012,32 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>New Taiwan dollar</t>
+          <t>Tanzanian shilling</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Nuovo dollaro di Taiwan</t>
+          <t>Scellino tanzaniano</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>78;84;36</t>
+          <t>84;83;104</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>004E;0054;0024</t>
+          <t>0054;0053;0068</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>834</v>
+        <v>980</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TZS</t>
+          <t>UAH</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -5045,98 +5045,98 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Tanzanian shilling</t>
+          <t>Ukrainian hryvnia</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Scellino tanzaniano</t>
+          <t>Hryvnia</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>84;83;104</t>
+          <t>8372</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>0054;0053;0068</t>
+          <t>20B4</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>980</v>
+        <v>800</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>UAH</t>
+          <t>UGX</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Ukrainian hryvnia</t>
+          <t>Ugandan shilling</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Hryvnia</t>
+          <t>Scellino dell'Uganda</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>8372</t>
+          <t>85;83;104</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>20B4</t>
+          <t>0055;0053;0068</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>800</v>
+        <v>840</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>UGX</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Ugandan shilling</t>
+          <t>United States dollar</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Scellino dell'Uganda</t>
+          <t>Dollaro Americano</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>85;83;104</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>0055;0053;0068</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>840</v>
+        <v>858</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>UYU</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -5144,32 +5144,32 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>United States dollar</t>
+          <t>Uruguayan peso</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Dollaro Americano</t>
+          <t>Peso Uruguayo</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>36;85</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>0024;0055</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>UYU</t>
+          <t>UZS</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -5177,32 +5177,32 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Uruguayan peso</t>
+          <t>Uzbekistani sum</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Peso Uruguayo</t>
+          <t>Sum dell'Uzbekistan</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>36;85</t>
+          <t>1083;1074</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>0024;0055</t>
+          <t>043B;0432</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>860</v>
+        <v>926</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>UZS</t>
+          <t>VED</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -5210,32 +5210,32 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Uzbekistan som</t>
+          <t>Venezuelan digital bolívar</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Sum dell'Uzbekistan</t>
+          <t>Bolívar digitale venezuelano</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>1083;1074</t>
+          <t>66;115;46;68</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>043B;0432</t>
+          <t>0042;0073;002E;0044</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>VED</t>
+          <t>VES</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -5243,65 +5243,65 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Venezuelan digital bolívar</t>
+          <t>Venezuelan sovereign bolívar</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Bolívar digitale venezuelano</t>
+          <t>Bolívar sovrano venezuelano</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>66;115;46;68</t>
+          <t>66;115;46;83</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>0042;0073;002E;0044</t>
+          <t>0042;0073;002E;0053</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>928</v>
+        <v>704</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>VES</t>
+          <t>VND</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Venezuelan sovereign bolívar</t>
+          <t>Vietnamese đồng</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Bolívar sovrano venezuelano</t>
+          <t>Dong</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>66;115;46;83</t>
+          <t>8363</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>0042;0073;002E;0053</t>
+          <t>20AB</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>704</v>
+        <v>548</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>VND</t>
+          <t>VUV</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -5309,164 +5309,164 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Vietnamese đồng</t>
+          <t>Vanuatu vatu</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Dong</t>
+          <t>Vatu</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>8363</t>
+          <t>86;84</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>20AB</t>
+          <t>0056;0054</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>548</v>
+        <v>882</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>VUV</t>
+          <t>WST</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Vanuatu vatu</t>
+          <t>Samoan tala</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Vatu</t>
+          <t>Tala</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>86;84</t>
+          <t>87;83;36</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>0056;0054</t>
+          <t>0057;0053;0024</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>882</v>
+        <v>950</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>XAF</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Samoan tala</t>
+          <t>CFA franc BEAC</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Tala</t>
+          <t>CFA Franco BEAC</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>87;83;36</t>
+          <t>70;67;70;65</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>0057;0053;0024</t>
+          <t>0046;0043;0046;0041</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>XAF</t>
+          <t>XCD</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>CFA franc BEAC</t>
+          <t>East Caribbean dollar</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>CFA Franco BEAC</t>
+          <t>Dollaro caraibico orientale</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>70;67;70;65</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>0046;0043;0046;0041</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>XCD</t>
+          <t>XOF</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>East Caribbean dollar</t>
+          <t>CFA franc BCEAO</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Dollaro caraibico orientale</t>
+          <t>CFA Franco BCEAO</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>70;67;70;65</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>0046;0043;0046;0041</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>XOF</t>
+          <t>XPF</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -5474,32 +5474,32 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>CFA franc BCEAO</t>
+          <t>CFP franc (franc Pacifique)</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>CFA Franco BCEAO</t>
+          <t>Franco CFP</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>70;67;70;65</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>0046;0043;0046;0041</t>
+          <t>0046</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>953</v>
+        <v>999</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>XPF</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -5507,55 +5507,55 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>CFP franc (franc Pacifique)</t>
+          <t>No currency</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Franco CFP</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>0046</t>
+          <t>Nessuna valuta</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>999</v>
+        <v>886</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>YER</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>No currency</t>
+          <t>Yemeni rial</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Nessuna valuta</t>
+          <t>Rial Yemenita</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>65020</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>FDFC</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>886</v>
+        <v>710</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>YER</t>
+          <t>ZAR</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -5563,32 +5563,32 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Yemeni rial</t>
+          <t>South African rand</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Rial Yemenita</t>
+          <t>Rand</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>65020</t>
+          <t>82</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>FDFC</t>
+          <t>0052</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>710</v>
+        <v>967</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ZAR</t>
+          <t>ZMW</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -5596,32 +5596,32 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>South African rand</t>
+          <t>Zambian kwacha</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Rand</t>
+          <t>Kwacha dello Zambia</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>90;36</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>0052</t>
+          <t>005A;0024</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>967</v>
+        <v>932</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ZMW</t>
+          <t>ZWL</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -5629,53 +5629,20 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Zambian kwacha</t>
+          <t>Zimbabwean dollar</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Kwacha dello Zambia</t>
+          <t>Dollaro dello Zimbabwe</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>90;36</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
-        <is>
-          <t>005A;0024</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>932</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>ZWL</t>
-        </is>
-      </c>
-      <c r="C159" t="n">
-        <v>2</v>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Zimbabwean dollar</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Dollaro dello Zimbabwe</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
         <is>
           <t>0024</t>
         </is>

--- a/dist/xlsx/world_currencies.xlsx
+++ b/dist/xlsx/world_currencies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G158"/>
+  <dimension ref="A1:G157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -908,110 +908,110 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>975</v>
+        <v>48</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BGN</t>
+          <t>BHD</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bulgarian lev</t>
+          <t>Bahraini dinar</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lev Bulgaro</t>
+          <t>Dinaro del Bahrain</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1083;1074</t>
+          <t>46;1583;46;1576</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>043B;0432</t>
+          <t>002E;062F;002E;0628</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BHD</t>
+          <t>BIF</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bahraini dinar</t>
+          <t>Burundian franc</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Dinaro del Bahrain</t>
+          <t>Burundi Franco</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>46;1583;46;1576</t>
+          <t>70;66;117</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>002E;062F;002E;0628</t>
+          <t>0046;0042;0075</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIF</t>
+          <t>BMD</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Burundian franc</t>
+          <t>Bermudian dollar</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Burundi Franco</t>
+          <t>Dollaro delle Bermuda</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>70;66;117</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0046;0042;0075</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BMD</t>
+          <t>BND</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1019,12 +1019,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Bermudian dollar</t>
+          <t>Brunei dollar</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Dollaro delle Bermuda</t>
+          <t>Dollaro del Brunei</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1040,11 +1040,11 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BND</t>
+          <t>BOB</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1052,32 +1052,32 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Brunei dollar</t>
+          <t>Boliviano</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Dollaro del Brunei</t>
+          <t>Boliviano</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>36;98</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>0024;0062</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>68</v>
+        <v>986</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BOB</t>
+          <t>BRL</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1085,32 +1085,32 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Boliviano</t>
+          <t>Brazilian real</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Boliviano</t>
+          <t>Real Brasiliano</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>36;98</t>
+          <t>82;36</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0024;0062</t>
+          <t>0052;0024</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>986</v>
+        <v>44</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BRL</t>
+          <t>BSD</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1118,32 +1118,32 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Brazilian real</t>
+          <t>Bahamian dollar</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Real Brasiliano</t>
+          <t>Dollaro delle Bahamas</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>82;36</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0052;0024</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BSD</t>
+          <t>BTN</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1151,32 +1151,32 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Bahamian dollar</t>
+          <t>Bhutanese ngultrum</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Dollaro delle Bahamas</t>
+          <t>Ngultrum</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>78;117</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>004E;0075</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BTN</t>
+          <t>BWP</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1184,32 +1184,32 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Bhutanese ngultrum</t>
+          <t>Botswana pula</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Ngultrum</t>
+          <t>Pula</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>78;117</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>004E;0075</t>
+          <t>0050</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>72</v>
+        <v>933</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BWP</t>
+          <t>BYN</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1217,32 +1217,32 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Botswana pula</t>
+          <t>Belarusian ruble</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Pula</t>
+          <t>Rublo Bielorusso</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>112;46</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0050</t>
+          <t>0070;002E</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>933</v>
+        <v>84</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BYN</t>
+          <t>BZD</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1250,32 +1250,32 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Belarusian ruble</t>
+          <t>Belize dollar</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Rublo Bielorusso</t>
+          <t>Dollaro Belize</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>112;46</t>
+          <t>66;90;36</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0070;002E</t>
+          <t>0042;005A;0024</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BZD</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1283,32 +1283,32 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Belize dollar</t>
+          <t>Canadian dollar</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Dollaro Belize</t>
+          <t>Dollaro Canadese</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>66;90;36</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0042;005A;0024</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>124</v>
+        <v>976</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>CDF</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1316,32 +1316,32 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Canadian dollar</t>
+          <t>Congolese franc</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Dollaro Canadese</t>
+          <t>Franco congolese</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>70;67</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>0046;0043</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>976</v>
+        <v>756</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CDF</t>
+          <t>CHF</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1349,98 +1349,98 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Congolese franc</t>
+          <t>Swiss franc</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Franco congolese</t>
+          <t>Franco Svizzero</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>70;67</t>
+          <t>67;72;70</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0046;0043</t>
+          <t>0043;0048;0046</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>756</v>
+        <v>152</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CHF</t>
+          <t>CLP</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Swiss franc</t>
+          <t>Chilean peso</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Franco Svizzero</t>
+          <t>Peso Cileno</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>67;72;70</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0043;0048;0046</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CLP</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Chilean peso</t>
+          <t>Renminbi</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Peso Cileno</t>
+          <t>Yuan Renminbi</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>165</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>00A5</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>COP</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1448,32 +1448,32 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Renminbi</t>
+          <t>Colombian peso</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Yuan Renminbi</t>
+          <t>Peso Colombiano</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>00A5</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>COP</t>
+          <t>CRC</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1481,32 +1481,32 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Colombian peso</t>
+          <t>Costa Rican colon</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Peso Colombiano</t>
+          <t>Colón costaricano</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>8353</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>20A1</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CRC</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1514,32 +1514,32 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Costa Rican colon</t>
+          <t>Cuban peso</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Colón costaricano</t>
+          <t>Peso cubano</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>8353</t>
+          <t>8369</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20A1</t>
+          <t>20B1</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>CVE</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1547,32 +1547,32 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Cuban peso</t>
+          <t>Cape Verdean escudo</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Peso cubano</t>
+          <t>Cabo Verde Escudo</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>8369</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20B1</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CVE</t>
+          <t>CZK</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1580,98 +1580,98 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Cape Verdean escudo</t>
+          <t>Czech koruna</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Cabo Verde Escudo</t>
+          <t>Corona Ceca</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>75;269</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>004B;010D</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CZK</t>
+          <t>DJF</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Czech koruna</t>
+          <t>Djiboutian franc</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Corona Ceca</t>
+          <t>Franco del Gibuti</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>75;269</t>
+          <t>70;100;106</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>004B;010D</t>
+          <t>0046;0064;006A</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>262</v>
+        <v>208</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DJF</t>
+          <t>DKK</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Djiboutian franc</t>
+          <t>Danish krone</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Franco del Gibuti</t>
+          <t>Corona Danese</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>70;100;106</t>
+          <t>107;114</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0046;0064;006A</t>
+          <t>006B;0072</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DKK</t>
+          <t>DOP</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1679,32 +1679,32 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Danish krone</t>
+          <t>Dominican peso</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Corona Danese</t>
+          <t>Peso dominicano</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>107;114</t>
+          <t>82;68;36</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>006B;0072</t>
+          <t>0052;0044;0024</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DOP</t>
+          <t>DZD</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1712,32 +1712,32 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Dominican peso</t>
+          <t>Algerian dinar</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Peso dominicano</t>
+          <t>Dinaro Algerino</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>82;68;36</t>
+          <t>1583;1580</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0052;0044;0024</t>
+          <t>062F;062C</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>12</v>
+        <v>818</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DZD</t>
+          <t>EGP</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1745,32 +1745,32 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Algerian dinar</t>
+          <t>Egyptian pound</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Dinaro Algerino</t>
+          <t>Sterlina Egiziana</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1583;1580</t>
+          <t>163</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>062F;062C</t>
+          <t>00A3</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>818</v>
+        <v>232</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>EGP</t>
+          <t>ERN</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1778,32 +1778,32 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Egyptian pound</t>
+          <t>Eritrean nakfa</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sterlina Egiziana</t>
+          <t>Nakfa</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>1606;1575;1601;1603;1575</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>00A3</t>
+          <t>0646;0627;0641;0643;0627</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ERN</t>
+          <t>ETB</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1811,32 +1811,32 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Eritrean nakfa</t>
+          <t>Ethiopian birr</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Nakfa</t>
+          <t>Birr Etiope</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1606;1575;1601;1603;1575</t>
+          <t>4709;4653</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0646;0627;0641;0643;0627</t>
+          <t>1265;122D</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>230</v>
+        <v>978</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ETB</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1844,32 +1844,32 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Ethiopian birr</t>
+          <t>Euro</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Birr Etiope</t>
+          <t>Euro</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>4709;4653</t>
+          <t>8364</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1265;122D</t>
+          <t>20AC</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>978</v>
+        <v>242</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>FJD</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Euro</t>
+          <t>Fiji dollar</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Euro</t>
+          <t>Dollaro delle Figi</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>8364</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>20AC</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FJD</t>
+          <t>FKP</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1910,32 +1910,32 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Fiji dollar</t>
+          <t>Falkland Islands pound</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Dollaro delle Figi</t>
+          <t>Sterlina delle Falkland</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>163</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>00A3</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>238</v>
+        <v>826</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FKP</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Falkland Islands pound</t>
+          <t>Pound sterling</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Sterlina delle Falkland</t>
+          <t>Sterlina Britannica</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1964,11 +1964,11 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>826</v>
+        <v>981</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>GEL</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1976,32 +1976,32 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Pound sterling</t>
+          <t>Georgian lari</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sterlina Britannica</t>
+          <t>Lari</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>8382</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>00A3</t>
+          <t>20BE</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>981</v>
+        <v>936</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>GEL</t>
+          <t>GHS</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2009,32 +2009,32 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Georgian lari</t>
+          <t>Ghanaian cedi</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Lari</t>
+          <t>Ghana Cedi</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>8382</t>
+          <t>162</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>20BE</t>
+          <t>00A2</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>936</v>
+        <v>292</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GHS</t>
+          <t>GIP</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2042,32 +2042,32 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Ghanaian cedi</t>
+          <t>Gibraltar pound</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Ghana Cedi</t>
+          <t>Sterlina di Gibilterra</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>163</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>00A2</t>
+          <t>00A3</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GIP</t>
+          <t>GMD</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2075,98 +2075,98 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Gibraltar pound</t>
+          <t>Gambian dalasi</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sterlina di Gibilterra</t>
+          <t>Dalasi</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>68</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>00A3</t>
+          <t>0044</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>270</v>
+        <v>324</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>GMD</t>
+          <t>GNF</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Gambian dalasi</t>
+          <t>Guinean franc</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Dalasi</t>
+          <t>Franco della Guinea</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>70;71</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0044</t>
+          <t>0046;0047</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>GNF</t>
+          <t>GTQ</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Guinean franc</t>
+          <t>Guatemalan quetzal</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Franco della Guinea</t>
+          <t>Quetzal</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>70;71</t>
+          <t>81</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0046;0047</t>
+          <t>0051</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GTQ</t>
+          <t>GYD</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -2174,32 +2174,32 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Guatemalan quetzal</t>
+          <t>Guyanese dollar</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Quetzal</t>
+          <t>Dollaro della Guyana</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0051</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>GYD</t>
+          <t>HKD</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2207,12 +2207,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Guyanese dollar</t>
+          <t>Hong Kong dollar</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Dollaro della Guyana</t>
+          <t>Dollaro di Hong Kong</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2228,11 +2228,11 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>HKD</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -2240,32 +2240,32 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Hong Kong dollar</t>
+          <t>Honduran lempira</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Dollaro di Hong Kong</t>
+          <t>Lempira</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>76</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>004C</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>HTG</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -2273,32 +2273,32 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Honduran lempira</t>
+          <t>Haitian gourde</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Lempira</t>
+          <t>Gourde</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>004C</t>
+          <t>0047</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>HTG</t>
+          <t>HUF</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -2306,32 +2306,32 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Haitian gourde</t>
+          <t>Hungarian forint</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Gourde</t>
+          <t>Fiorino</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>70;116</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0047</t>
+          <t>0046;0074</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>HUF</t>
+          <t>IDR</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2339,32 +2339,32 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Hungarian forint</t>
+          <t>Indonesian rupiah</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Fiorino</t>
+          <t>Rupia</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>70;116</t>
+          <t>82;112</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0046;0074</t>
+          <t>0052;0070</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>IDR</t>
+          <t>ILS</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -2372,32 +2372,32 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Indonesian rupiah</t>
+          <t>Israeli new shekel</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Rupia</t>
+          <t>Nuovo Shekel Israeliano</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>82;112</t>
+          <t>8362</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0052;0070</t>
+          <t>20AA</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ILS</t>
+          <t>INR</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2405,263 +2405,263 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Israeli new shekel</t>
+          <t>Indian rupee</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Nuovo Shekel Israeliano</t>
+          <t>Rupia indiana</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>8362</t>
+          <t>8377</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>20AA</t>
+          <t>20B9</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>INR</t>
+          <t>IQD</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Indian rupee</t>
+          <t>Iraqi dinar</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Rupia indiana</t>
+          <t>Dinaro Iracheno</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>8377</t>
+          <t>1593;46;1583</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>20B9</t>
+          <t>0639;002E;062F</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>IQD</t>
+          <t>IRR</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Iraqi dinar</t>
+          <t>Iranian rial</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Dinaro Iracheno</t>
+          <t>Riyal Iraniano</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1593;46;1583</t>
+          <t>65020</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0639;002E;062F</t>
+          <t>FDFC</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>IRR</t>
+          <t>ISK</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Iranian rial</t>
+          <t>Icelandic króna</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Riyal Iraniano</t>
+          <t>Corona Islandese</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>65020</t>
+          <t>107;114</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>FDFC</t>
+          <t>006B;0072</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ISK</t>
+          <t>JMD</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Icelandic króna</t>
+          <t>Jamaican dollar</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Corona Islandese</t>
+          <t>Dollaro giamaicano</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>107;114</t>
+          <t>74;36</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>006B;0072</t>
+          <t>004A;0024</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>JMD</t>
+          <t>JOD</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Jamaican dollar</t>
+          <t>Jordanian dinar</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Dollaro giamaicano</t>
+          <t>Dinaro giordano</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>74;36</t>
+          <t>1583;1610;1606;1575;1585</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>004A;0024</t>
+          <t>062F;064A;0646;0627;0631</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>JOD</t>
+          <t>JPY</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Jordanian dinar</t>
+          <t>Japanese yen</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Dinaro giordano</t>
+          <t>Yen</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1583;1610;1606;1575;1585</t>
+          <t>165</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>062F;064A;0646;0627;0631</t>
+          <t>00A5</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>JPY</t>
+          <t>KES</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Japanese yen</t>
+          <t>Kenyan shilling</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Yen</t>
+          <t>Scellino Keniota</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>75;83;104</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>00A5</t>
+          <t>004B;0053;0068</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>KES</t>
+          <t>KGS</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -2669,32 +2669,32 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Kenyan shilling</t>
+          <t>Kyrgyzstani som</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Scellino Keniota</t>
+          <t>Som</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>75;83;104</t>
+          <t>1083;1074</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>004B;0053;0068</t>
+          <t>043B;0432</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>417</v>
+        <v>116</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>KGS</t>
+          <t>KHR</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -2702,111 +2702,111 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Kyrgyzstani som</t>
+          <t>Cambodian riel</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Som</t>
+          <t>Riel</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1083;1074</t>
+          <t>6107</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>043B;0432</t>
+          <t>17DB</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>KHR</t>
+          <t>KMF</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Cambodian riel</t>
+          <t>Comoro franc</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Riel</t>
+          <t>Franco delle Comore</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>6107</t>
+          <t>67;70</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>17DB</t>
+          <t>0043;0046</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>174</v>
+        <v>408</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>KMF</t>
+          <t>KPW</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Comoro franc</t>
+          <t>North Korean won</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Franco delle Comore</t>
+          <t>Won Nordcoreano</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>67;70</t>
+          <t>8361</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0043;0046</t>
+          <t>20A9</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>KPW</t>
+          <t>KRW</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>North Korean won</t>
+          <t>South Korean won</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Won Nordcoreano</t>
+          <t>Won</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2822,77 +2822,77 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>KRW</t>
+          <t>KWD</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>South Korean won</t>
+          <t>Kuwaiti dinar</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Won</t>
+          <t>Dinaro Kuwaitiano</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>8361</t>
+          <t>1583;46;1603</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>20A9</t>
+          <t>062F;002E;0643</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>414</v>
+        <v>136</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>KWD</t>
+          <t>KYD</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Kuwaiti dinar</t>
+          <t>Cayman Islands dollar</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Dinaro Kuwaitiano</t>
+          <t>Dollaro delle Isole Cayman</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>1583;46;1603</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>062F;002E;0643</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>136</v>
+        <v>398</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>KYD</t>
+          <t>KZT</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -2900,32 +2900,32 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Cayman Islands dollar</t>
+          <t>Kazakhstani tenge</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Dollaro delle Isole Cayman</t>
+          <t>Tenge</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>1083;1074</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>043B;0432</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>KZT</t>
+          <t>LAK</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -2933,32 +2933,32 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Kazakhstani tenge</t>
+          <t>Lao kip</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Tenge</t>
+          <t>Kip</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1083;1074</t>
+          <t>8365</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>043B;0432</t>
+          <t>20AD</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>LAK</t>
+          <t>LBP</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -2966,32 +2966,32 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Lao kip</t>
+          <t>Lebanese pound</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Kip</t>
+          <t>Libbra libanese</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>8365</t>
+          <t>163</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>20AD</t>
+          <t>00A3</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>422</v>
+        <v>144</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>LBP</t>
+          <t>LKR</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -2999,32 +2999,32 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Lebanese pound</t>
+          <t>Sri Lankan rupee</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Libbra libanese</t>
+          <t>Rupia dello Sri Lanka</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>8360</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>00A3</t>
+          <t>20A8</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>144</v>
+        <v>430</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>LKR</t>
+          <t>LRD</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -3032,32 +3032,32 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Sri Lankan rupee</t>
+          <t>Liberian dollar</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Rupia dello Sri Lanka</t>
+          <t>Dollaro Liberiano</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>8360</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>20A8</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>LRD</t>
+          <t>LSL</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -3065,98 +3065,98 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Liberian dollar</t>
+          <t>Lesotho loti</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Dollaro Liberiano</t>
+          <t>Loti</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>76</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>004C</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>LSL</t>
+          <t>LYD</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Lesotho loti</t>
+          <t>Libyan dinar</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Loti</t>
+          <t>Dinaro Libico</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>1604;46;1583</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>004C</t>
+          <t>0644;002E;062F</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>434</v>
+        <v>504</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>LYD</t>
+          <t>MAD</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Libyan dinar</t>
+          <t>Moroccan dirham</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Dinaro Libico</t>
+          <t>Dirham Marocchino</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1604;46;1583</t>
+          <t>77;65;68</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0644;002E;062F</t>
+          <t>004D;0041;0044</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MAD</t>
+          <t>MDL</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -3164,32 +3164,32 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Moroccan dirham</t>
+          <t>Moldovan leu</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Dirham Marocchino</t>
+          <t>Leu Moldavo</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>77;65;68</t>
+          <t>76</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>004D;0041;0044</t>
+          <t>004C</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>498</v>
+        <v>969</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MDL</t>
+          <t>MGA</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -3197,32 +3197,32 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Moldovan leu</t>
+          <t>Malagasy ariary</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Leu Moldavo</t>
+          <t>Ariary Malgascio</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>65;114</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>004C</t>
+          <t>0041;0072</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>969</v>
+        <v>807</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>MKD</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -3230,32 +3230,32 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Malagasy ariary</t>
+          <t>Macedonian denar</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Ariary Malgascio</t>
+          <t>Denar</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>65;114</t>
+          <t>1076;1077;1085</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0041;0072</t>
+          <t>0434;0435;043D</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>807</v>
+        <v>104</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MKD</t>
+          <t>MMK</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -3263,32 +3263,32 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Macedonian denar</t>
+          <t>Myanmar kyat</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Denar</t>
+          <t>Kyat</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1076;1077;1085</t>
+          <t>75</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0434;0435;043D</t>
+          <t>004B</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>104</v>
+        <v>496</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MMK</t>
+          <t>MNT</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -3296,32 +3296,32 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Myanmar kyat</t>
+          <t>Mongolian tögrög</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Kyat</t>
+          <t>Tugrik</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>8366</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>004B</t>
+          <t>20AE</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>496</v>
+        <v>446</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MNT</t>
+          <t>MOP</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -3329,32 +3329,32 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Mongolian tögrög</t>
+          <t>Macanese pataca</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Tugrik</t>
+          <t>Pataca</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>8366</t>
+          <t>77;79;80;36</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>20AE</t>
+          <t>004D;004F;0050;0024</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>446</v>
+        <v>929</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MOP</t>
+          <t>MRU</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -3362,32 +3362,32 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Macanese pataca</t>
+          <t>Mauritanian ouguiya</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Pataca</t>
+          <t>Rupia Mauriziana</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>77;79;80;36</t>
+          <t>85;77</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>004D;004F;0050;0024</t>
+          <t>0055;004D</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>929</v>
+        <v>480</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MRU</t>
+          <t>MUR</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -3395,32 +3395,32 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Mauritanian ouguiya</t>
+          <t>Mauritian rupee</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Rupia Mauriziana</t>
+          <t>Rupia delle Mauritius</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>85;77</t>
+          <t>8360</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0055;004D</t>
+          <t>20A8</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MUR</t>
+          <t>MVR</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -3428,32 +3428,32 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Mauritian rupee</t>
+          <t>Maldivian rufiyaa</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Rupia delle Mauritius</t>
+          <t>Rufiyaa</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>8360</t>
+          <t>45;1923</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>20A8</t>
+          <t>002D;0783</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MVR</t>
+          <t>MWK</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -3461,32 +3461,32 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Maldivian rufiyaa</t>
+          <t>Malawian kwacha</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Rufiyaa</t>
+          <t>Kwacha</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>45;1923</t>
+          <t>77;75</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>002D;0783</t>
+          <t>004D;004B</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MWK</t>
+          <t>MXN</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -3494,32 +3494,32 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Malawian kwacha</t>
+          <t>Mexican peso</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Kwacha</t>
+          <t>Peso Messicano</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>77;75</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>004D;004B</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>484</v>
+        <v>458</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MXN</t>
+          <t>MYR</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -3527,32 +3527,32 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Mexican peso</t>
+          <t>Malaysian ringgit</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Peso Messicano</t>
+          <t>Ringgit Malese</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>82;77</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>0052;004D</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>458</v>
+        <v>943</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MYR</t>
+          <t>MZN</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -3560,32 +3560,32 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Malaysian ringgit</t>
+          <t>Mozambican metical</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Ringgit Malese</t>
+          <t>Metical Mozambicano</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>82;77</t>
+          <t>77;84</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0052;004D</t>
+          <t>004D;0054</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>943</v>
+        <v>516</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MZN</t>
+          <t>NAD</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -3593,32 +3593,32 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Mozambican metical</t>
+          <t>Namibian dollar</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Metical Mozambicano</t>
+          <t>Dollaro Namibiano</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>77;84</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>004D;0054</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>516</v>
+        <v>566</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NAD</t>
+          <t>NGN</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -3626,32 +3626,32 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Namibian dollar</t>
+          <t>Nigerian naira</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Dollaro Namibiano</t>
+          <t>Naira</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>8358</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>20A6</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NGN</t>
+          <t>NIO</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -3659,32 +3659,32 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Nigerian naira</t>
+          <t>Nicaraguan córdoba</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Naira</t>
+          <t>Cordoba Oro</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>8358</t>
+          <t>67;36</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>20A6</t>
+          <t>0043;0024</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>558</v>
+        <v>578</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -3692,32 +3692,32 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Nicaraguan córdoba</t>
+          <t>Norwegian krone</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Cordoba Oro</t>
+          <t>Corona norvegese</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>67;36</t>
+          <t>107;114</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0043;0024</t>
+          <t>006B;0072</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>578</v>
+        <v>524</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>NPR</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -3725,32 +3725,32 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Norwegian krone</t>
+          <t>Nepalese rupee</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Corona norvegese</t>
+          <t>Rupia nepalese</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>107;114</t>
+          <t>8360</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>006B;0072</t>
+          <t>20A8</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NPR</t>
+          <t>NZD</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -3758,98 +3758,98 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Nepalese rupee</t>
+          <t>New Zealand dollar</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Rupia nepalese</t>
+          <t>Dollaro neozelandese</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>8360</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>20A8</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>554</v>
+        <v>512</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NZD</t>
+          <t>OMR</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>New Zealand dollar</t>
+          <t>Omani rial</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Dollaro neozelandese</t>
+          <t>Rial Omani</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>65020</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>FDFC</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>512</v>
+        <v>590</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>OMR</t>
+          <t>PAB</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Omani rial</t>
+          <t>Panamanian balboa</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Rial Omani</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>65020</t>
+          <t>66;47;46</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>FDFC</t>
+          <t>0042;002F;002E</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>PAB</t>
+          <t>PEN</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -3857,32 +3857,32 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Panamanian balboa</t>
+          <t>Peruvian sol</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Nuevo Sol</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>66;47;46</t>
+          <t>83;47;46</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>0042;002F;002E</t>
+          <t>0053;002F;002E</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>PEN</t>
+          <t>PGK</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -3890,32 +3890,32 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Peruvian sol</t>
+          <t>Papua New Guinean kina</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Nuevo Sol</t>
+          <t>Kina</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>83;47;46</t>
+          <t>75</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>0053;002F;002E</t>
+          <t>004B</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>PGK</t>
+          <t>PHP</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -3923,32 +3923,32 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Papua New Guinean kina</t>
+          <t>Philippine peso</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Kina</t>
+          <t>Peso filippino</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>8369</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>004B</t>
+          <t>20B1</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>608</v>
+        <v>586</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>PHP</t>
+          <t>PKR</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -3956,32 +3956,32 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Philippine peso</t>
+          <t>Pakistani rupee</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Peso filippino</t>
+          <t>Rupia pakistana</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>8369</t>
+          <t>8360</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>20B1</t>
+          <t>20A8</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>586</v>
+        <v>985</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>PKR</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -3989,98 +3989,98 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Pakistani rupee</t>
+          <t>Polish złoty</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Rupia pakistana</t>
+          <t>Zloty</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>8360</t>
+          <t>122;322</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>20A8</t>
+          <t>007A;0142</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>985</v>
+        <v>600</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>PYG</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Polish złoty</t>
+          <t>Paraguayan guaraní</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Zloty</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>122;322</t>
+          <t>71;115</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>007A;0142</t>
+          <t>0047;0073</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>600</v>
+        <v>634</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>PYG</t>
+          <t>QAR</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Paraguayan guaraní</t>
+          <t>Qatari riyal</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Rial del Qatar</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>71;115</t>
+          <t>65020</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>0047;0073</t>
+          <t>FDFC</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>634</v>
+        <v>946</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>QAR</t>
+          <t>RON</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -4088,32 +4088,32 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Qatari riyal</t>
+          <t>Romanian leu</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Rial del Qatar</t>
+          <t>Leu rumeno</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>65020</t>
+          <t>108;101;105</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>FDFC</t>
+          <t>006C;0065;0069</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>RON</t>
+          <t>RSD</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -4121,32 +4121,32 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Romanian leu</t>
+          <t>Serbian dinar</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Leu rumeno</t>
+          <t>Dinaro serbo</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>108;101;105</t>
+          <t>1044;1080;1085;46</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>006C;0065;0069</t>
+          <t>0414;0438;043D;002E</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>941</v>
+        <v>643</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>RSD</t>
+          <t>RUB</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -4154,98 +4154,98 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Serbian dinar</t>
+          <t>Russian ruble</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Dinaro serbo</t>
+          <t>Rublo russo</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>1044;1080;1085;46</t>
+          <t>1088;1091;1073</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>0414;0438;043D;002E</t>
+          <t>0440;0443;0431</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>RWF</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Russian ruble</t>
+          <t>Rwandan franc</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Rublo russo</t>
+          <t>Franco ruandese</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1088;1091;1073</t>
+          <t>70;82;119</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>0440;0443;0431</t>
+          <t>0046;0052;0077</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>646</v>
+        <v>682</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>RWF</t>
+          <t>SAR</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Rwandan franc</t>
+          <t>Saudi riyal</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Franco ruandese</t>
+          <t>Riyal saudita</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>70;82;119</t>
+          <t>65020</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>0046;0052;0077</t>
+          <t>FDFC</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>682</v>
+        <v>90</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SAR</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -4253,32 +4253,32 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Saudi riyal</t>
+          <t>Solomon Islands dollar</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Riyal saudita</t>
+          <t>Dollaro delle Isole Salomone</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>65020</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>FDFC</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>90</v>
+        <v>690</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>SCR</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -4286,32 +4286,32 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Solomon Islands dollar</t>
+          <t>Seychelles rupee</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Dollaro delle Isole Salomone</t>
+          <t>Rupia delle Seychelles</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>8360</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>20A8</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>690</v>
+        <v>938</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SCR</t>
+          <t>SDG</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -4319,32 +4319,32 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Seychelles rupee</t>
+          <t>Sudanese pound</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Rupia delle Seychelles</t>
+          <t>Sterlina sudanese</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>8360</t>
+          <t>1580;46;1587</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>20A8</t>
+          <t>062C;002E;0633</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>938</v>
+        <v>752</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SDG</t>
+          <t>SEK</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -4352,32 +4352,32 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Sudanese pound</t>
+          <t>Swedish krona/kronor</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Sterlina sudanese</t>
+          <t>Corona svedese</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>1580;46;1587</t>
+          <t>107;114</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>062C;002E;0633</t>
+          <t>006B;0072</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>752</v>
+        <v>702</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SEK</t>
+          <t>SGD</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -4385,32 +4385,32 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Swedish krona/kronor</t>
+          <t>Singapore dollar</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Corona svedese</t>
+          <t>Dollaro di Singapore</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>107;114</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>006B;0072</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>702</v>
+        <v>654</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SGD</t>
+          <t>SHP</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -4418,32 +4418,32 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Singapore dollar</t>
+          <t>Saint Helena pound</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Dollaro di Singapore</t>
+          <t>Saint Helena Pound</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>163</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>00A3</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>654</v>
+        <v>925</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SHP</t>
+          <t>SLE</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -4451,32 +4451,32 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Saint Helena pound</t>
+          <t>Sierra Leonean leone</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Saint Helena Pound</t>
+          <t>Nuovo leone</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>76;101</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>00A3</t>
+          <t>004C;0065</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>925</v>
+        <v>706</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>SLE</t>
+          <t>SOS</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -4484,32 +4484,32 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Sierra Leonean leone</t>
+          <t>Somalian shilling</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Nuovo leone</t>
+          <t>Scellino somalo</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>76;101</t>
+          <t>83</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>004C;0065</t>
+          <t>0053</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>706</v>
+        <v>968</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>SOS</t>
+          <t>SRD</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -4517,32 +4517,32 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Somalian shilling</t>
+          <t>Surinamese dollar</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Scellino somalo</t>
+          <t>Dollaro del Suriname</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>0053</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>968</v>
+        <v>728</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SRD</t>
+          <t>SSP</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -4550,12 +4550,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Surinamese dollar</t>
+          <t>South Sudanese pound</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Dollaro del Suriname</t>
+          <t>Sterlina sud-sudanese</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -4571,11 +4571,11 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>728</v>
+        <v>930</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SSP</t>
+          <t>STN</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -4583,32 +4583,32 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>South Sudanese pound</t>
+          <t>São Tomé and Príncipe dobra</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Sterlina sud-sudanese</t>
+          <t>Dobra di São Tomé e Principe</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>68;98</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>0044;0062</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>930</v>
+        <v>222</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>STN</t>
+          <t>SVC</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -4616,32 +4616,32 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>São Tomé and Príncipe dobra</t>
+          <t>Salvadoran colón</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Dobra di São Tomé e Principe</t>
+          <t>Colón Salvadoregno</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>68;98</t>
+          <t>20A1</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>0044;0062</t>
+          <t>8353</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>222</v>
+        <v>760</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>SVC</t>
+          <t>SYP</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -4649,32 +4649,32 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Salvadoran colón</t>
+          <t>Syrian pound</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Colón Salvadoregno</t>
+          <t>Sterlina siriana</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>20A1</t>
+          <t>163</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>8353</t>
+          <t>00A3</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SYP</t>
+          <t>SZL</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -4682,32 +4682,32 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Syrian pound</t>
+          <t>Swazi lilangeni</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Sterlina siriana</t>
+          <t>Lilangeni</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>76</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>00A3</t>
+          <t>004C</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>748</v>
+        <v>764</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>SZL</t>
+          <t>THB</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -4715,32 +4715,32 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Swazi lilangeni</t>
+          <t>Thai baht</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Lilangeni</t>
+          <t>Baht</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>3647</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>004C</t>
+          <t>0E3F</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>764</v>
+        <v>972</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>THB</t>
+          <t>TJS</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -4748,32 +4748,32 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Thai baht</t>
+          <t>Tajikistani somoni</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Baht</t>
+          <t>Somoni</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>3647</t>
+          <t>1057</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>0E3F</t>
+          <t>0421</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>972</v>
+        <v>934</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TJS</t>
+          <t>TMT</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -4781,98 +4781,98 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Tajikistani somoni</t>
+          <t>Turkmenistani manat</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Somoni</t>
+          <t>Manat turkmeno</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>1057</t>
+          <t>84</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>0421</t>
+          <t>0054</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>934</v>
+        <v>788</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TMT</t>
+          <t>TND</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Turkmenistani manat</t>
+          <t>Tunisian dinar</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Manat turkmeno</t>
+          <t>Dinaro tunisino</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>1583;46;1578</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>0054</t>
+          <t>062F;002E;062A</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TND</t>
+          <t>TOP</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Tunisian dinar</t>
+          <t>Tongan pa'anga</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Dinaro tunisino</t>
+          <t>Pa'anga</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1583;46;1578</t>
+          <t>84;36</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>062F;002E;062A</t>
+          <t>0054;0024</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>776</v>
+        <v>949</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TOP</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -4880,32 +4880,32 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Tongan pa'anga</t>
+          <t>Turkish lira</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Pa'anga</t>
+          <t>Lira turca</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>84;36</t>
+          <t>8378</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>0054;0024</t>
+          <t>20BA</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>949</v>
+        <v>780</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TRY</t>
+          <t>TTD</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -4913,32 +4913,32 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Turkish lira</t>
+          <t>Trinidad and Tobago dollar</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Lira turca</t>
+          <t>Dollaro di Trinidad e Tobago</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>8378</t>
+          <t>84;84;36</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>20BA</t>
+          <t>0054;0054;0024</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>780</v>
+        <v>901</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>TWD</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -4946,32 +4946,32 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Trinidad and Tobago dollar</t>
+          <t>New Taiwan dollar</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Dollaro di Trinidad e Tobago</t>
+          <t>Nuovo dollaro di Taiwan</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>84;84;36</t>
+          <t>78;84;36</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>0054;0054;0024</t>
+          <t>004E;0054;0024</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>901</v>
+        <v>834</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TWD</t>
+          <t>TZS</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -4979,32 +4979,32 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>New Taiwan dollar</t>
+          <t>Tanzanian shilling</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Nuovo dollaro di Taiwan</t>
+          <t>Scellino tanzaniano</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>78;84;36</t>
+          <t>84;83;104</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>004E;0054;0024</t>
+          <t>0054;0053;0068</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>834</v>
+        <v>980</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TZS</t>
+          <t>UAH</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -5012,98 +5012,98 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Tanzanian shilling</t>
+          <t>Ukrainian hryvnia</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Scellino tanzaniano</t>
+          <t>Hryvnia</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>84;83;104</t>
+          <t>8372</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>0054;0053;0068</t>
+          <t>20B4</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>980</v>
+        <v>800</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>UAH</t>
+          <t>UGX</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Ukrainian hryvnia</t>
+          <t>Ugandan shilling</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Hryvnia</t>
+          <t>Scellino dell'Uganda</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>8372</t>
+          <t>85;83;104</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>20B4</t>
+          <t>0055;0053;0068</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>800</v>
+        <v>840</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>UGX</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Ugandan shilling</t>
+          <t>United States dollar</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Scellino dell'Uganda</t>
+          <t>Dollaro Americano</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>85;83;104</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>0055;0053;0068</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>840</v>
+        <v>858</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>UYU</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -5111,32 +5111,32 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>United States dollar</t>
+          <t>Uruguayan peso</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Dollaro Americano</t>
+          <t>Peso Uruguayo</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>36;85</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>0024;0055</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>UYU</t>
+          <t>UZS</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -5144,32 +5144,32 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Uruguayan peso</t>
+          <t>Uzbekistani sum</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Peso Uruguayo</t>
+          <t>Sum dell'Uzbekistan</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>36;85</t>
+          <t>1083;1074</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>0024;0055</t>
+          <t>043B;0432</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>860</v>
+        <v>926</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>UZS</t>
+          <t>VED</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -5177,32 +5177,32 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Uzbekistani sum</t>
+          <t>Venezuelan digital bolívar</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Sum dell'Uzbekistan</t>
+          <t>Bolívar digitale venezuelano</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>1083;1074</t>
+          <t>66;115;46;68</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>043B;0432</t>
+          <t>0042;0073;002E;0044</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>VED</t>
+          <t>VES</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -5210,65 +5210,65 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Venezuelan digital bolívar</t>
+          <t>Venezuelan sovereign bolívar</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Bolívar digitale venezuelano</t>
+          <t>Bolívar sovrano venezuelano</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>66;115;46;68</t>
+          <t>66;115;46;83</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>0042;0073;002E;0044</t>
+          <t>0042;0073;002E;0053</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>928</v>
+        <v>704</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>VES</t>
+          <t>VND</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Venezuelan sovereign bolívar</t>
+          <t>Vietnamese đồng</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Bolívar sovrano venezuelano</t>
+          <t>Dong</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>66;115;46;83</t>
+          <t>8363</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>0042;0073;002E;0053</t>
+          <t>20AB</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>704</v>
+        <v>548</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>VND</t>
+          <t>VUV</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -5276,164 +5276,164 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Vietnamese đồng</t>
+          <t>Vanuatu vatu</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Dong</t>
+          <t>Vatu</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>8363</t>
+          <t>86;84</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>20AB</t>
+          <t>0056;0054</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>548</v>
+        <v>882</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>VUV</t>
+          <t>WST</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Vanuatu vatu</t>
+          <t>Samoan tala</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Vatu</t>
+          <t>Tala</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>86;84</t>
+          <t>87;83;36</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>0056;0054</t>
+          <t>0057;0053;0024</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>882</v>
+        <v>950</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>XAF</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Samoan tala</t>
+          <t>CFA franc BEAC</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Tala</t>
+          <t>CFA Franco BEAC</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>87;83;36</t>
+          <t>70;67;70;65</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>0057;0053;0024</t>
+          <t>0046;0043;0046;0041</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>XAF</t>
+          <t>XCD</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>CFA franc BEAC</t>
+          <t>East Caribbean dollar</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>CFA Franco BEAC</t>
+          <t>Dollaro caraibico orientale</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>70;67;70;65</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>0046;0043;0046;0041</t>
+          <t>0024</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>XCD</t>
+          <t>XOF</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>East Caribbean dollar</t>
+          <t>CFA franc BCEAO</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Dollaro caraibico orientale</t>
+          <t>CFA Franco BCEAO</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>70;67;70;65</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>0024</t>
+          <t>0046;0043;0046;0041</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>XOF</t>
+          <t>XPF</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -5441,32 +5441,32 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>CFA franc BCEAO</t>
+          <t>CFP franc (franc Pacifique)</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>CFA Franco BCEAO</t>
+          <t>Franco CFP</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>70;67;70;65</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>0046;0043;0046;0041</t>
+          <t>0046</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>953</v>
+        <v>999</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>XPF</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -5474,55 +5474,55 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>CFP franc (franc Pacifique)</t>
+          <t>No currency</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Franco CFP</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>0046</t>
+          <t>Nessuna valuta</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>999</v>
+        <v>886</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>YER</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>No currency</t>
+          <t>Yemeni rial</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Nessuna valuta</t>
+          <t>Rial Yemenita</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>65020</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>FDFC</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>886</v>
+        <v>710</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>YER</t>
+          <t>ZAR</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -5530,32 +5530,32 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Yemeni rial</t>
+          <t>South African rand</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Rial Yemenita</t>
+          <t>Rand</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>65020</t>
+          <t>82</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>FDFC</t>
+          <t>0052</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>710</v>
+        <v>967</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ZAR</t>
+          <t>ZMW</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -5563,32 +5563,32 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>South African rand</t>
+          <t>Zambian kwacha</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Rand</t>
+          <t>Kwacha dello Zambia</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>90;36</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>0052</t>
+          <t>005A;0024</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>967</v>
+        <v>924</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ZMW</t>
+          <t>ZWG</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -5596,53 +5596,20 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Zambian kwacha</t>
+          <t>Zimbabwe Gold</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Kwacha dello Zambia</t>
+          <t>Oro dello Zimbabwe</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>90;36</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
-        <is>
-          <t>005A;0024</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>932</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>ZWL</t>
-        </is>
-      </c>
-      <c r="C158" t="n">
-        <v>2</v>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Zimbabwean dollar</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>Dollaro dello Zimbabwe</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
         <is>
           <t>0024</t>
         </is>
